--- a/prod_analysis.xlsx
+++ b/prod_analysis.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="per_split_by_prod" sheetId="3" r:id="rId1"/>
+    <sheet name="Pentrn_rate" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="CIQWBGuid" hidden="1">"a8e6940c-5a99-4ac6-ae53-932a9b2c9663"</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>segment_name</t>
   </si>
@@ -87,13 +88,61 @@
   </si>
   <si>
     <t>White Striped Socks - Mens</t>
+  </si>
+  <si>
+    <t>percentage split of revenue by product for each segment?</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>penetration_rate</t>
+  </si>
+  <si>
+    <t>c4a632</t>
+  </si>
+  <si>
+    <t>e83aa3</t>
+  </si>
+  <si>
+    <t>e31d39</t>
+  </si>
+  <si>
+    <t>d5e9a6</t>
+  </si>
+  <si>
+    <t>72f5d4</t>
+  </si>
+  <si>
+    <t>9ec847</t>
+  </si>
+  <si>
+    <t>5d267b</t>
+  </si>
+  <si>
+    <t>c8d436</t>
+  </si>
+  <si>
+    <t>2a2353</t>
+  </si>
+  <si>
+    <t>f084eb</t>
+  </si>
+  <si>
+    <t>b9a74d</t>
+  </si>
+  <si>
+    <t>2feb6b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penetration rate </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +162,20 @@
       <color rgb="FF4D4D4D"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -162,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -173,6 +236,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,21 +535,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,11 +559,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -491,11 +573,11 @@
       <c r="C2" s="2">
         <v>354156</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="8">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -505,11 +587,11 @@
       <c r="C3" s="3">
         <v>354156</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -519,11 +601,11 @@
       <c r="C4" s="2">
         <v>354156</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -533,11 +615,11 @@
       <c r="C5" s="3">
         <v>201697</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="9">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -547,11 +629,11 @@
       <c r="C6" s="2">
         <v>201697</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -561,11 +643,11 @@
       <c r="C7" s="3">
         <v>201697</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="9">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -575,11 +657,11 @@
       <c r="C8" s="2">
         <v>391274</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="8">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -589,11 +671,11 @@
       <c r="C9" s="3">
         <v>391274</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="9">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -603,11 +685,11 @@
       <c r="C10" s="2">
         <v>391274</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -617,11 +699,11 @@
       <c r="C11" s="3">
         <v>297213</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="9">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -631,11 +713,11 @@
       <c r="C12" s="2">
         <v>297213</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -645,12 +727,221 @@
       <c r="C13" s="3">
         <v>297213</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="9">
         <v>20</v>
       </c>
     </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E15:L16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.4398807552169497E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8.2543888704869103E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8.23451473998012E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.2610135806558405E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8.2808877111626294E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8.4465054653858798E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8.4001324942033703E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8.2278900298111898E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8.4001324942033703E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8.4862537263994703E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8.23451473998012E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8.3338853925140705E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D15:I16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>